--- a/data/trans_camb/PCS12_SP_R3-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R3-Provincia-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>11.13570039778067</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>9.387435988376303</v>
+        <v>9.387435988376296</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>7.622734433389969</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.304528429374696</v>
+        <v>-2.425937383185343</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.136548431016174</v>
+        <v>-3.902129682261439</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.554311127459113</v>
+        <v>-1.838453332874439</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.269248895632725</v>
+        <v>2.769192633751253</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.583068590624024</v>
+        <v>3.266170427690147</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.516775063083524</v>
+        <v>2.263287662170325</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.923569413283419</v>
+        <v>2.618298974415637</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.110539305771423</v>
+        <v>2.900202492149272</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.324270359660955</v>
+        <v>2.656446864785391</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.71499417671659</v>
+        <v>10.93483204172552</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.6726609388765</v>
+        <v>10.14727031033792</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.80644433692716</v>
+        <v>11.15312234253612</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.10470751128014</v>
+        <v>19.15054482882729</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.68186604075842</v>
+        <v>19.60279931556304</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>16.51637025864773</v>
+        <v>16.46728304310832</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.59269528936164</v>
+        <v>13.07796721923925</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>12.55411101359436</v>
+        <v>13.20591063549473</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>11.17417835379256</v>
+        <v>11.73989382044006</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.4655485349067784</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3924591103214978</v>
+        <v>0.3924591103214976</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.375762414449321</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1167758766715516</v>
+        <v>-0.1308563406415533</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1548114103675419</v>
+        <v>-0.2035281911294294</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.0781325019377873</v>
+        <v>-0.1005623750729958</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.0750404545327585</v>
+        <v>0.09369831172254062</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1298955395091475</v>
+        <v>0.1067040841535258</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09545926274643962</v>
+        <v>0.07693410668344533</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08428114525992804</v>
+        <v>0.113715466378798</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.09364318735518919</v>
+        <v>0.1266770732149033</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.09697648920182848</v>
+        <v>0.1088192001748348</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8975569731973493</v>
+        <v>0.8079912260797063</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.8454561998518765</v>
+        <v>0.728026897286408</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8296888255159907</v>
+        <v>0.8439178597125656</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.9643850794011439</v>
+        <v>0.9595894422381021</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9215422046150148</v>
+        <v>0.9604506995172013</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8719303432149158</v>
+        <v>0.8469581008647364</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7045801976840719</v>
+        <v>0.7322988983441656</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7037584207632173</v>
+        <v>0.7761255070564587</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6302424443885927</v>
+        <v>0.6605527005606778</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.285266846110993</v>
+        <v>-5.205192003535065</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.103527070610157</v>
+        <v>-6.969838047259887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.540389777776605</v>
+        <v>2.02798946676205</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.696955581414268</v>
+        <v>-7.928707724526439</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-13.69317898483286</v>
+        <v>-14.24633881979893</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.26668488680192</v>
+        <v>-6.572639035295158</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-5.139168119684189</v>
+        <v>-5.371565167776985</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-9.174226945761607</v>
+        <v>-8.85214151759207</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.8285442182204842</v>
+        <v>-1.129236893871247</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.48725572345723</v>
+        <v>4.41443792447241</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.34150752652168</v>
+        <v>2.016993110268251</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.21425790467167</v>
+        <v>12.34445071208734</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.795612064874393</v>
+        <v>3.232660797150504</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-2.336569029310725</v>
+        <v>-3.137186252843806</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.240313844030667</v>
+        <v>4.275675801504521</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.088924609699587</v>
+        <v>2.202353702571565</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-2.042322731343794</v>
+        <v>-1.748969904483047</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.632840496665869</v>
+        <v>6.440250993427769</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2933504973596408</v>
+        <v>-0.3002781351036435</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3904229075736192</v>
+        <v>-0.3805526215141991</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.104542478521144</v>
+        <v>0.1064434862678821</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2333732408428863</v>
+        <v>-0.2367015510526049</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4086128981407626</v>
+        <v>-0.4305070968702212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1848747249705472</v>
+        <v>-0.1894210911464171</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.203874476048212</v>
+        <v>-0.2125152908268862</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3668162299161702</v>
+        <v>-0.3502385686776602</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.03487731824553639</v>
+        <v>-0.04415022122732916</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3359773698804787</v>
+        <v>0.3344250496488968</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1774587848282559</v>
+        <v>0.1582002756321021</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.9664992260052164</v>
+        <v>0.9220836004792712</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1369238730349702</v>
+        <v>0.1210913716982383</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.08687333793727671</v>
+        <v>-0.1120057117218196</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1539755743612552</v>
+        <v>0.1558061642285891</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09744170370317415</v>
+        <v>0.09951622676400984</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.09103078408201641</v>
+        <v>-0.08109066392664738</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3113240494469491</v>
+        <v>0.3022962166001241</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-8.857728821757988</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.370394729683767</v>
+        <v>2.370394729683778</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.05910909580312818</v>
@@ -1092,7 +1092,7 @@
         <v>-4.204341594313147</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>7.550446528708327</v>
+        <v>7.550446528708332</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.172656102551951</v>
+        <v>-2.348636129345436</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.679938563224275</v>
+        <v>-4.178680742243248</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.264117700944086</v>
+        <v>7.474040384066543</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.320249141224869</v>
+        <v>-10.04499176859289</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-15.66009062864223</v>
+        <v>-16.02761507726082</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.470042965072158</v>
+        <v>-3.76895345534755</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.52507668215145</v>
+        <v>-4.740839031808109</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-8.576966976401007</v>
+        <v>-8.75439688904679</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.983402942143035</v>
+        <v>2.355084119199394</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.314265997689343</v>
+        <v>8.720260142958512</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.711661109082264</v>
+        <v>5.901105862048863</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.75623565556916</v>
+        <v>19.03579646404972</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.204527158640293</v>
+        <v>4.198433604892531</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-2.306354975824523</v>
+        <v>-2.389818998480512</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.503386492165275</v>
+        <v>8.829799135888528</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.594344036057426</v>
+        <v>4.413128756755671</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3122839799874427</v>
+        <v>-0.09913722063879984</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.45524779871559</v>
+        <v>11.34423313844447</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.3132743747032177</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08383457449243796</v>
+        <v>0.08383457449243836</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.002828908242854902</v>
@@ -1197,7 +1197,7 @@
         <v>-0.2012160130404286</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3613575902673135</v>
+        <v>0.3613575902673137</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1896954776851401</v>
+        <v>-0.1591433256351057</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3002292224143666</v>
+        <v>-0.2681979998270548</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4536266148957013</v>
+        <v>0.4403842983185819</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2890667641155862</v>
+        <v>-0.3205270499718964</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4921996472159376</v>
+        <v>-0.4896704237557622</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1078909438273765</v>
+        <v>-0.117219526492205</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1946904785106198</v>
+        <v>-0.1977939742044044</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3705430637721417</v>
+        <v>-0.3742991290422751</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1236964789958873</v>
+        <v>0.101363135520584</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7789605056584528</v>
+        <v>0.8208864926239968</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5340733066933571</v>
+        <v>0.5808100715006709</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.721008584327963</v>
+        <v>1.883571139604236</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.17581555160628</v>
+        <v>0.1689273528038452</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.08239621581557777</v>
+        <v>-0.09477025927245321</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3415504920973159</v>
+        <v>0.3587247939673985</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2502265772730472</v>
+        <v>0.2371556143917777</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.01862650466089617</v>
+        <v>-0.00297088498781961</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6195116582304301</v>
+        <v>0.6122255676040578</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>8.969086914192973</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10.23116994947666</v>
+        <v>10.23116994947667</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>9.631703399472119</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.926108219501764</v>
+        <v>2.105231312017807</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.862462100736934</v>
+        <v>3.177555684955644</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.606939371108823</v>
+        <v>3.946181296413408</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.570138220631925</v>
+        <v>2.707441633088867</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.599940023131397</v>
+        <v>2.63537569056126</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.678886651282354</v>
+        <v>0.1412917970937546</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.145833916484548</v>
+        <v>3.731851554217016</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>4.623160750069967</v>
+        <v>4.644784493463927</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.897217950790765</v>
+        <v>4.112008992733294</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.51884499146038</v>
+        <v>12.98666845368293</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.91376730040783</v>
+        <v>14.65522250706944</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.68478047781953</v>
+        <v>17.04447787189682</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15.76108943338174</v>
+        <v>16.82152958504048</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>16.03088041021162</v>
+        <v>16.22346905607021</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.53451737533853</v>
+        <v>12.74104300410237</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>13.16902644081193</v>
+        <v>12.93255989328329</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>13.5931942873183</v>
+        <v>13.80345906086108</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>12.8437817285014</v>
+        <v>13.19988706297451</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.6349328255309877</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.724277254380187</v>
+        <v>0.7242772543801872</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3492711835416376</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1110700624307142</v>
+        <v>0.1178724950195909</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1643641296547824</v>
+        <v>0.1973330166607553</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2847921406218681</v>
+        <v>0.2089515913420334</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.08440690638654851</v>
+        <v>0.08409409108121649</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.07910453723109398</v>
+        <v>0.0799918909833886</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01836769894160638</v>
+        <v>-0.004532489390900985</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1833177918847832</v>
+        <v>0.1617701554376481</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2036145907667421</v>
+        <v>0.200776724340513</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1680624062868129</v>
+        <v>0.1747165295006555</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.138719456674482</v>
+        <v>1.119335460355826</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.305669018054124</v>
+        <v>1.300873800944535</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.502123471710096</v>
+        <v>1.40589167258371</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6527060552144615</v>
+        <v>0.6919139357236413</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6608394688767684</v>
+        <v>0.6566657502135085</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.515644088997127</v>
+        <v>0.514705858911389</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6956434472702216</v>
+        <v>0.685747384277102</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7148493037071367</v>
+        <v>0.7407486548849067</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6826654911109861</v>
+        <v>0.6909678837427645</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>1.587725218152855</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.34718835141885</v>
+        <v>2.347188351418847</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>12.92239093918948</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.285502391293881</v>
+        <v>2.339283288565285</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.335458304630095</v>
+        <v>-5.913438272761391</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.957819445831884</v>
+        <v>-5.300144996720896</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8.112253630321192</v>
+        <v>7.520330799406941</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.083269860789781</v>
+        <v>-6.385223496100739</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.832849358198092</v>
+        <v>-5.890669922364857</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>7.009969002717553</v>
+        <v>6.861370445261684</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.320665212398333</v>
+        <v>-3.905513807761923</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.923440723576696</v>
+        <v>-2.595490761708869</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>17.66146114661249</v>
+        <v>17.13014100062312</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.735392602547403</v>
+        <v>7.42900427503166</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.208564287077179</v>
+        <v>7.218264736427117</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26.78928751883299</v>
+        <v>25.59002378466305</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.49248052366467</v>
+        <v>9.977738723233889</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.913909828962883</v>
+        <v>8.559445583365315</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>18.58847158701809</v>
+        <v>18.75062324325248</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.229609500974207</v>
+        <v>7.216451655614105</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.250964301246128</v>
+        <v>6.440794865149757</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.07389098702654688</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1092355667344795</v>
+        <v>0.1092355667344793</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.7335349979139945</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1179451046919761</v>
+        <v>0.1449066120023174</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3655772257736032</v>
+        <v>-0.3611025955806572</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2975285514282165</v>
+        <v>-0.3040277731351469</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2961645289139733</v>
+        <v>0.2998646947157917</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2301028754867951</v>
+        <v>-0.260173274366828</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1889206813154061</v>
+        <v>-0.213604022278345</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3487552531070738</v>
+        <v>0.3255769540114195</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2052423543835121</v>
+        <v>-0.1851796857129758</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1415646769041508</v>
+        <v>-0.1248321874423623</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.698445724197571</v>
+        <v>1.704343508452861</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6660727875300545</v>
+        <v>0.7154680575249389</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7468618317183551</v>
+        <v>0.710351682357668</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.538900638985009</v>
+        <v>1.592295116206816</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6290582762615499</v>
+        <v>0.5711398762082397</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5458540210699322</v>
+        <v>0.5024909340333396</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.24551686023593</v>
+        <v>1.247932321533148</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4174555429323424</v>
+        <v>0.4889424969274104</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4389932994618019</v>
+        <v>0.4495543965976981</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-0.5091736940598057</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>6.768918498827537</v>
+        <v>6.76891849882752</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.742845847505606</v>
@@ -1734,7 +1734,7 @@
         <v>3.044203369499218</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>8.786945492269801</v>
+        <v>8.786945492269806</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.65364149591807</v>
+        <v>-1.40761638826871</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.172013784971648</v>
+        <v>-0.2482667858799055</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4.52160929137264</v>
+        <v>4.719913353108518</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-9.546044259705658</v>
+        <v>-9.67527128809807</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-8.195889423974155</v>
+        <v>-9.257142896736454</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.09457083420661475</v>
+        <v>-0.6653212338849072</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.342503585994891</v>
+        <v>-3.262284834084604</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.314706699831436</v>
+        <v>-2.021709335693811</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>4.076666414341608</v>
+        <v>3.666228212169955</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>12.11771457427563</v>
+        <v>11.93196028901036</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>13.23324662484164</v>
+        <v>13.94603064564176</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17.06832410627806</v>
+        <v>17.2077037634958</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.969789609370738</v>
+        <v>5.722541893723944</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.582723113410335</v>
+        <v>7.13415979701888</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>13.78862729643179</v>
+        <v>13.57124193170064</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.820013263941484</v>
+        <v>6.702020430533395</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>8.550236643870734</v>
+        <v>8.487408409626207</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>13.677564424873</v>
+        <v>13.18683099792108</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.01629354893458062</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2166052686568686</v>
+        <v>0.2166052686568681</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.071963118949689</v>
@@ -1839,7 +1839,7 @@
         <v>0.1256969281017331</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.3628180912096481</v>
+        <v>0.3628180912096483</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.07293310880936818</v>
+        <v>-0.06709262211219739</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.05904845063559524</v>
+        <v>-0.01635996583118307</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.2162167206929207</v>
+        <v>0.2235254931917197</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2743064197298993</v>
+        <v>-0.2792449718401864</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2411402959852661</v>
+        <v>-0.263072770964638</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.0004179994090295118</v>
+        <v>-0.02638321571437523</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1260155547861839</v>
+        <v>-0.1274130425381315</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.08510379182743756</v>
+        <v>-0.07702322296501087</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1515915970951933</v>
+        <v>0.1291831920088286</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.8775622986745717</v>
+        <v>0.8660820424601862</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.9625661248879642</v>
+        <v>1.004847327625715</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.251085112292101</v>
+        <v>1.332001275628152</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2160056675656905</v>
+        <v>0.2170100571486885</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2780871900263686</v>
+        <v>0.2728612857327229</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4962215265225299</v>
+        <v>0.5185447290378907</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3114472536201211</v>
+        <v>0.3047984816746433</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3927648236721895</v>
+        <v>0.3927893097828017</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.6401192684041551</v>
+        <v>0.6111086152648906</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>0.6986792320274049</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>5.458837334616645</v>
+        <v>5.458837334616639</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.340950797803502</v>
@@ -1948,7 +1948,7 @@
         <v>1.68693368295649</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>5.376063699536754</v>
+        <v>5.376063699536749</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.975326015261062</v>
+        <v>-4.834480005706747</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.619868877070973</v>
+        <v>-1.353108970717799</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.4082510718628586</v>
+        <v>0.9719664789526847</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.287685358393975</v>
+        <v>-3.386544403301518</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.385559451352415</v>
+        <v>-3.977420066438054</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.300636003958882</v>
+        <v>1.210597811884847</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.439344486707674</v>
+        <v>-3.182428454093348</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.579484994603947</v>
+        <v>-1.616294552493908</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.05165442322312</v>
+        <v>2.220210365589189</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.626410124209094</v>
+        <v>3.603402950899353</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.187722504311313</v>
+        <v>7.318906414199793</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9.486088234318499</v>
+        <v>9.430160107254315</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.425641225326404</v>
+        <v>6.055134164132836</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.497351023973589</v>
+        <v>5.545820532932583</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>9.480129496539304</v>
+        <v>10.32980343242538</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.477947083967838</v>
+        <v>3.312658442321363</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.039540304530646</v>
+        <v>4.967692321468054</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>8.161316699331431</v>
+        <v>8.32160718506301</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.02739897144836052</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2140703793905518</v>
+        <v>0.2140703793905515</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.01647349474870575</v>
@@ -2053,7 +2053,7 @@
         <v>0.08150646177286391</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.2597517228103599</v>
+        <v>0.2597517228103596</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2837749737371738</v>
+        <v>-0.2654817757360003</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.09970825107660299</v>
+        <v>-0.0813469550426086</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.01742644024607032</v>
+        <v>0.05413182204809192</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1168305771712687</v>
+        <v>-0.1261060462967698</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1618110106219952</v>
+        <v>-0.140732749512247</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04678603313175988</v>
+        <v>0.04457954736131088</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1105555738845877</v>
+        <v>-0.1419863293609963</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.06979877071476098</v>
+        <v>-0.07364106736086076</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.09837653543624043</v>
+        <v>0.09977096366923784</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2787029905568308</v>
+        <v>0.2699571009075051</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5127244088662</v>
+        <v>0.5375137309190418</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6887250435260993</v>
+        <v>0.700860139164271</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2725093404395023</v>
+        <v>0.2664051482627144</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2269800002511777</v>
+        <v>0.2383933724231229</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4236049523979452</v>
+        <v>0.4632045924351418</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1827087463085268</v>
+        <v>0.1742671516519113</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2641554088993783</v>
+        <v>0.2624052018304433</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4317725665932337</v>
+        <v>0.4373452060604901</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-4.330551672774519</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-0.598711046124345</v>
+        <v>-0.5987110461243395</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-1.407014893072425</v>
@@ -2162,7 +2162,7 @@
         <v>-4.79478080694159</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-0.9636287182370307</v>
+        <v>-0.9636287182370334</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.412286054107676</v>
+        <v>-4.13872587342289</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-8.671530003621188</v>
+        <v>-9.248559422613836</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-5.000295557598576</v>
+        <v>-5.100482552682331</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-6.579314586765002</v>
+        <v>-6.692965933801855</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-8.618458089322043</v>
+        <v>-8.834125741281932</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-4.688394961644105</v>
+        <v>-4.912813651546254</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-4.578033867817801</v>
+        <v>-4.469639682977493</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-7.893217786184714</v>
+        <v>-7.793387706597625</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-3.629480738836307</v>
+        <v>-3.861044728699988</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.439516332692043</v>
+        <v>3.404781434615904</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.14487007080394</v>
+        <v>-2.102801431234968</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.51761548885108</v>
+        <v>2.069417863026213</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.070091086537619</v>
+        <v>2.345585657935688</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.02150345258054728</v>
+        <v>-0.3098987822767619</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.306693245990702</v>
+        <v>3.671169372249789</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.665177771240823</v>
+        <v>1.769731383021255</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-1.828780372653059</v>
+        <v>-1.854725882493056</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.821433397407712</v>
+        <v>1.748588908657546</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.1618963145604324</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.02238262447335065</v>
+        <v>-0.02238262447335044</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.06311652953210864</v>
@@ -2267,7 +2267,7 @@
         <v>-0.2150865110890755</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.04322690594964784</v>
+        <v>-0.04322690594964797</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2284724478583564</v>
+        <v>-0.2145125237245816</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.4460425124481793</v>
+        <v>-0.4714072473497244</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2506412079766572</v>
+        <v>-0.2541116218414838</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.232297185700728</v>
+        <v>-0.2286117016224616</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3024686928255466</v>
+        <v>-0.306783333162622</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1610890379692708</v>
+        <v>-0.1662975656075653</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1921904174326591</v>
+        <v>-0.188701337814522</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.3252545093486452</v>
+        <v>-0.3267733379010599</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1535932278945933</v>
+        <v>-0.1621697203376858</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2201756504643213</v>
+        <v>0.2174084389208777</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.07944270874408844</v>
+        <v>-0.1298611674382242</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.155051470417904</v>
+        <v>0.131895297331829</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.08283973001505063</v>
+        <v>0.09664131885556085</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.003378956671537895</v>
+        <v>-0.0124593201045814</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1349124837338426</v>
+        <v>0.1474899970611793</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.07876494590516321</v>
+        <v>0.08474215955297568</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.08527049276509169</v>
+        <v>-0.0925578821993804</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.08682661941225425</v>
+        <v>0.08399724968833935</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>0.8855076472124496</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>5.359872882654665</v>
+        <v>5.359872882654668</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>1.947626893096144</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.1767882030215937</v>
+        <v>0.2740234042855134</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.7173519045420093</v>
+        <v>-0.7347888571140629</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>3.518428827301654</v>
+        <v>3.319199351395594</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.2964589550229607</v>
+        <v>-0.3433329502771088</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-3.108656739314462</v>
+        <v>-3.186828759853976</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.9764183402867672</v>
+        <v>1.069503142525908</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.6738361243809671</v>
+        <v>0.6537281013929498</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-1.531306428026426</v>
+        <v>-1.463494651621637</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>2.931191423218285</v>
+        <v>2.868157702731832</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>3.95316134842203</v>
+        <v>3.902976882367102</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>2.803473755734023</v>
+        <v>2.728535711896993</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>7.203986882244378</v>
+        <v>6.99548202093309</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4.107281118693849</v>
+        <v>4.103351166892195</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.218305270938025</v>
+        <v>1.101280545515561</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>5.104397608764709</v>
+        <v>5.126288245974645</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>3.478364685287929</v>
+        <v>3.62341833009647</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>1.416755780637549</v>
+        <v>1.437177693863172</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>5.621107965895368</v>
+        <v>5.686744223029261</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.05604632325575269</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.3392417548698307</v>
+        <v>0.3392417548698309</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.07160937246665663</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.01045099338970387</v>
+        <v>0.01703627919177348</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.04652313553805554</v>
+        <v>-0.04399538495871776</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.2111815207353683</v>
+        <v>0.1968503259744641</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.009888855688663581</v>
+        <v>-0.01319934641342834</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.1109457489840034</v>
+        <v>-0.1141916043893948</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.03507646454872139</v>
+        <v>0.03807656430751655</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.03034676536513298</v>
+        <v>0.02920977148579089</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.06867884132542047</v>
+        <v>-0.06520483670852073</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.1332523500414848</v>
+        <v>0.1276232312219192</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.2662596410325039</v>
+        <v>0.2657365396812272</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1894481395601813</v>
+        <v>0.1819509260219157</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.4851348045914403</v>
+        <v>0.4691248855670914</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1589849424207679</v>
+        <v>0.1543372037658844</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.04669749938636088</v>
+        <v>0.04228639573748089</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.1977556628717791</v>
+        <v>0.1953524402953872</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1674084972195004</v>
+        <v>0.1734987694801216</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.0672690109578076</v>
+        <v>0.06884848510313414</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.2693697849993802</v>
+        <v>0.2729601875705007</v>
       </c>
     </row>
     <row r="58">
